--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H2">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I2">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J2">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>262.4606322702462</v>
+        <v>218.8881844778142</v>
       </c>
       <c r="R2">
-        <v>2362.145690432216</v>
+        <v>1969.993660300328</v>
       </c>
       <c r="S2">
-        <v>0.007004086137108161</v>
+        <v>0.01086143635920567</v>
       </c>
       <c r="T2">
-        <v>0.00919592811395447</v>
+        <v>0.01190164381638466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H3">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I3">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J3">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>1728.470260343086</v>
+        <v>1108.072599750082</v>
       </c>
       <c r="R3">
-        <v>15556.23234308777</v>
+        <v>9972.653397750739</v>
       </c>
       <c r="S3">
-        <v>0.04612636372988412</v>
+        <v>0.05498359837136366</v>
       </c>
       <c r="T3">
-        <v>0.06056103775920493</v>
+        <v>0.06024941655202735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H4">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I4">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J4">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>1451.588282564926</v>
+        <v>1291.464034438073</v>
       </c>
       <c r="R4">
-        <v>13064.29454308434</v>
+        <v>11623.17630994266</v>
       </c>
       <c r="S4">
-        <v>0.03873742617610171</v>
+        <v>0.06408365281897561</v>
       </c>
       <c r="T4">
-        <v>0.05085982374598952</v>
+        <v>0.0702209896629253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H5">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I5">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J5">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>641.1137737778043</v>
+        <v>394.4919448950873</v>
       </c>
       <c r="R5">
-        <v>3846.682642666826</v>
+        <v>2366.951669370524</v>
       </c>
       <c r="S5">
-        <v>0.01710891289251562</v>
+        <v>0.01957505912856411</v>
       </c>
       <c r="T5">
-        <v>0.01497529013660795</v>
+        <v>0.01429985094223623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H6">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I6">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J6">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>1494.36238112877</v>
+        <v>1496.980091064542</v>
       </c>
       <c r="R6">
-        <v>13449.26143015893</v>
+        <v>13472.82081958088</v>
       </c>
       <c r="S6">
-        <v>0.03987890582654254</v>
+        <v>0.07428155169217655</v>
       </c>
       <c r="T6">
-        <v>0.05235851531024398</v>
+        <v>0.08139554853804855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>77.369203</v>
       </c>
       <c r="I7">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J7">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>275.5430578136369</v>
+        <v>358.4605095197043</v>
       </c>
       <c r="R7">
-        <v>2479.887520322732</v>
+        <v>3226.144585677338</v>
       </c>
       <c r="S7">
-        <v>0.00735320682082984</v>
+        <v>0.0177871456183206</v>
       </c>
       <c r="T7">
-        <v>0.00965430179008472</v>
+        <v>0.01949063315921329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>77.369203</v>
       </c>
       <c r="I8">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J8">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>1814.626356551907</v>
@@ -948,10 +948,10 @@
         <v>16331.63720896716</v>
       </c>
       <c r="S8">
-        <v>0.04842554556856162</v>
+        <v>0.09004345636309793</v>
       </c>
       <c r="T8">
-        <v>0.06357972006771771</v>
+        <v>0.09866698198912435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>77.369203</v>
       </c>
       <c r="I9">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J9">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>1523.943117124497</v>
+        <v>2114.955893646998</v>
       </c>
       <c r="R9">
-        <v>13715.48805412047</v>
+        <v>19034.60304282299</v>
       </c>
       <c r="S9">
-        <v>0.04066830430173859</v>
+        <v>0.1049460887812432</v>
       </c>
       <c r="T9">
-        <v>0.0533949462577031</v>
+        <v>0.1149968500748444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>77.369203</v>
       </c>
       <c r="I10">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J10">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>673.0702738355128</v>
+        <v>646.0366232460798</v>
       </c>
       <c r="R10">
-        <v>4038.421643013077</v>
+        <v>3876.219739476479</v>
       </c>
       <c r="S10">
-        <v>0.0179617115660105</v>
+        <v>0.0320569412453354</v>
       </c>
       <c r="T10">
-        <v>0.01572173777147123</v>
+        <v>0.02341803815056709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>77.369203</v>
       </c>
       <c r="I11">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J11">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>1568.849302907695</v>
+        <v>2451.517643421442</v>
       </c>
       <c r="R11">
-        <v>14119.64372616926</v>
+        <v>22063.65879079298</v>
       </c>
       <c r="S11">
-        <v>0.0418666813329676</v>
+        <v>0.1216465974671679</v>
       </c>
       <c r="T11">
-        <v>0.05496834053311189</v>
+        <v>0.1332967783125909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H12">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I12">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J12">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>88.80424702749023</v>
+        <v>33.58214681679</v>
       </c>
       <c r="R12">
-        <v>799.2382232474121</v>
+        <v>302.23932135111</v>
       </c>
       <c r="S12">
-        <v>0.002369851014003234</v>
+        <v>0.001666377522049555</v>
       </c>
       <c r="T12">
-        <v>0.003111466526674344</v>
+        <v>0.001825967678230165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H13">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I13">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J13">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>584.8324704983906</v>
+        <v>170.002126050075</v>
       </c>
       <c r="R13">
-        <v>5263.492234485515</v>
+        <v>1530.019134450675</v>
       </c>
       <c r="S13">
-        <v>0.01560697680149901</v>
+        <v>0.008435664434914721</v>
       </c>
       <c r="T13">
-        <v>0.02049098682301423</v>
+        <v>0.009243553995858536</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H14">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I14">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J14">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>491.1487231897502</v>
+        <v>198.138309368175</v>
       </c>
       <c r="R14">
-        <v>4420.338508707752</v>
+        <v>1783.244784313575</v>
       </c>
       <c r="S14">
-        <v>0.01310691029582528</v>
+        <v>0.009831808156557502</v>
       </c>
       <c r="T14">
-        <v>0.01720855547990496</v>
+        <v>0.01077340739111328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H15">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I15">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J15">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>216.9225359507178</v>
+        <v>60.5235337079175</v>
       </c>
       <c r="R15">
-        <v>1301.535215704307</v>
+        <v>363.141202247505</v>
       </c>
       <c r="S15">
-        <v>0.005788845792744856</v>
+        <v>0.003003234327933375</v>
       </c>
       <c r="T15">
-        <v>0.00506692890700024</v>
+        <v>0.002193904138526323</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H16">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I16">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J16">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>505.6214522325219</v>
+        <v>229.6688846859</v>
       </c>
       <c r="R16">
-        <v>4550.593070092697</v>
+        <v>2067.0199621731</v>
       </c>
       <c r="S16">
-        <v>0.013493132945591</v>
+        <v>0.01139638478274503</v>
       </c>
       <c r="T16">
-        <v>0.01771564172266396</v>
+        <v>0.01248782462954256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H17">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I17">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J17">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>1100.262664716306</v>
+        <v>176.0376762996757</v>
       </c>
       <c r="R17">
-        <v>6601.575988297836</v>
+        <v>1056.226057798054</v>
       </c>
       <c r="S17">
-        <v>0.02936186814174185</v>
+        <v>0.008735154081124793</v>
       </c>
       <c r="T17">
-        <v>0.02570020065785476</v>
+        <v>0.006381150651814846</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H18">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I18">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J18">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>7245.929715546008</v>
+        <v>891.1514620886991</v>
       </c>
       <c r="R18">
-        <v>43475.57829327604</v>
+        <v>5346.908772532194</v>
       </c>
       <c r="S18">
-        <v>0.1933665839029881</v>
+        <v>0.04421976871424296</v>
       </c>
       <c r="T18">
-        <v>0.169252173698233</v>
+        <v>0.03230315153383748</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H19">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I19">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J19">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>6085.211248753476</v>
+        <v>1038.641387562542</v>
       </c>
       <c r="R19">
-        <v>36511.26749252086</v>
+        <v>6231.848325375255</v>
       </c>
       <c r="S19">
-        <v>0.1623913780139156</v>
+        <v>0.05153835670920394</v>
       </c>
       <c r="T19">
-        <v>0.1421398318361766</v>
+        <v>0.03764948110292005</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H20">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I20">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J20">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>2687.616588520506</v>
+        <v>317.2644766730642</v>
       </c>
       <c r="R20">
-        <v>10750.46635408202</v>
+        <v>1269.057906692257</v>
       </c>
       <c r="S20">
-        <v>0.07172236813837933</v>
+        <v>0.01574295995300947</v>
       </c>
       <c r="T20">
-        <v>0.04185199760711431</v>
+        <v>0.007666966392935169</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H21">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I21">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J21">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>6264.524783357149</v>
+        <v>1203.924722234557</v>
       </c>
       <c r="R21">
-        <v>37587.14870014289</v>
+        <v>7223.548333407341</v>
       </c>
       <c r="S21">
-        <v>0.1671765811548586</v>
+        <v>0.05973987030419349</v>
       </c>
       <c r="T21">
-        <v>0.1463282806200602</v>
+        <v>0.04364080001229376</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H22">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I22">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J22">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>36.117784680588</v>
+        <v>191.1483925841302</v>
       </c>
       <c r="R22">
-        <v>325.0600621252919</v>
+        <v>1720.335533257172</v>
       </c>
       <c r="S22">
-        <v>0.00096384769325667</v>
+        <v>0.009484961950641161</v>
       </c>
       <c r="T22">
-        <v>0.001265471886907535</v>
+        <v>0.01039334347826054</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H23">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I23">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J23">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>237.858592924485</v>
+        <v>967.6460920631122</v>
       </c>
       <c r="R23">
-        <v>2140.727336320365</v>
+        <v>8708.814828568009</v>
       </c>
       <c r="S23">
-        <v>0.006347550331201813</v>
+        <v>0.04801550377079775</v>
       </c>
       <c r="T23">
-        <v>0.008333937561987232</v>
+        <v>0.05261398259356022</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H24">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I24">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J24">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>199.756255180248</v>
+        <v>1127.796252922343</v>
       </c>
       <c r="R24">
-        <v>1797.806296622232</v>
+        <v>10150.16627630109</v>
       </c>
       <c r="S24">
-        <v>0.005330742388321316</v>
+        <v>0.0559623044820321</v>
       </c>
       <c r="T24">
-        <v>0.006998932171507043</v>
+        <v>0.0613218540404837</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H25">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I25">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J25">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>88.22507603053948</v>
+        <v>344.4978144159543</v>
       </c>
       <c r="R25">
-        <v>529.3504561832369</v>
+        <v>2066.986886495726</v>
       </c>
       <c r="S25">
-        <v>0.002354395120615837</v>
+        <v>0.01709430363311175</v>
       </c>
       <c r="T25">
-        <v>0.002060782601965313</v>
+        <v>0.01248762480406137</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.380481</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H26">
-        <v>10.141443</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I26">
-        <v>0.02048435944619276</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J26">
-        <v>0.025864294635214</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>205.642492931304</v>
+        <v>1307.267173054902</v>
       </c>
       <c r="R26">
-        <v>1850.782436381736</v>
+        <v>11765.40455749412</v>
       </c>
       <c r="S26">
-        <v>0.005487823912797123</v>
+        <v>0.06486781933199171</v>
       </c>
       <c r="T26">
-        <v>0.007205170412846877</v>
+        <v>0.07108025635859984</v>
       </c>
     </row>
   </sheetData>
